--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B99486-9C63-4734-8C10-EAA48C42BE82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57214190-BAB0-402C-9BA3-06FA66916ECB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -149,7 +149,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +166,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,18 +298,19 @@
     <xf numFmtId="37" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +319,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
@@ -623,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1208,6 +1216,18 @@
         <v>250</v>
       </c>
     </row>
+    <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57214190-BAB0-402C-9BA3-06FA66916ECB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773C620-462C-46AA-B37C-EDAF00733873}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Cash Dividends</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,26 +128,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -175,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,16 +198,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFE1A16C"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -221,61 +233,27 @@
       <top style="medium">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,34 +261,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,8 +279,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -633,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -644,591 +604,592 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43617</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <v>10000</v>
       </c>
-      <c r="D2" s="4">
-        <v>43617</v>
-      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43617</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>50</v>
       </c>
-      <c r="D4" s="3">
-        <v>43617</v>
-      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43618</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>150</v>
       </c>
-      <c r="D6" s="3">
-        <v>43618</v>
-      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43621</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>200</v>
       </c>
-      <c r="D8" s="3">
-        <v>43621</v>
-      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43622</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>250</v>
       </c>
-      <c r="D10" s="3">
-        <v>43622</v>
-      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43624</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>42894</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>150</v>
       </c>
-      <c r="D12" s="3">
-        <v>43624</v>
-      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43625</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2">
+        <v>42895</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <v>450</v>
       </c>
-      <c r="D14" s="3">
-        <v>43625</v>
-      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8">
+        <v>450</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43626</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>42896</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="8">
         <v>40</v>
       </c>
-      <c r="D16" s="3">
-        <v>43626</v>
-      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43629</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2">
+        <v>42899</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="8">
         <v>600</v>
       </c>
-      <c r="D18" s="3">
-        <v>43629</v>
-      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43632</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="8">
         <v>500</v>
       </c>
-      <c r="D20" s="3">
-        <v>43632</v>
-      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8">
+        <v>500</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43633</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>42903</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="8">
         <v>30</v>
       </c>
-      <c r="D22" s="3">
-        <v>43633</v>
-      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43636</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2">
+        <v>42906</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="8">
         <v>250</v>
       </c>
-      <c r="D24" s="3">
-        <v>43636</v>
-      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>43637</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="8">
         <v>40</v>
       </c>
-      <c r="D26" s="3">
-        <v>43637</v>
-      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>43640</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2">
+        <v>42910</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="8">
         <v>750</v>
       </c>
-      <c r="D28" s="3">
-        <v>43640</v>
-      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8">
+        <v>750</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>43641</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2">
+        <v>42911</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="8">
         <v>175</v>
       </c>
-      <c r="D30" s="3">
-        <v>43641</v>
-      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8">
+        <v>175</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>43643</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="8">
         <v>600</v>
       </c>
-      <c r="D32" s="3">
-        <v>43643</v>
-      </c>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8">
+        <v>600</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>43645</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="8">
         <v>1600</v>
       </c>
-      <c r="D34" s="3">
-        <v>43645</v>
-      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8">
+        <v>1600</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>43646</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="8">
         <v>700</v>
       </c>
-      <c r="D36" s="3">
-        <v>43646</v>
-      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8">
+        <v>700</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>43646</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="8">
         <v>3750</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="12">
+      <c r="C40" s="8"/>
+      <c r="D40" s="9">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="8">
         <v>1200</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="8">
         <v>220</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="12">
+      <c r="C44" s="8"/>
+      <c r="D44" s="9">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="8">
         <v>175</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="12">
+      <c r="C46" s="8"/>
+      <c r="D46" s="9">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="9">
         <v>50</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="12">
+      <c r="C48" s="8"/>
+      <c r="D48" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="9">
         <v>700</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="12">
+      <c r="C50" s="8"/>
+      <c r="D50" s="9">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="12"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="11">
+      <c r="C52" s="9"/>
+      <c r="D52" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773C620-462C-46AA-B37C-EDAF00733873}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C816E9-AD61-4743-85B2-51931058F6B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -148,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,12 +165,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEF1E6"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -240,9 +234,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -262,15 +255,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -605,588 +597,576 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
+      <c r="C3" s="8"/>
+      <c r="D3" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>50</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>200</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>250</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>150</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>450</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>40</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>600</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>500</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>42903</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>30</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>250</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>40</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>750</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8">
+      <c r="C29" s="8"/>
+      <c r="D29" s="7">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>175</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>600</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>1600</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8">
+      <c r="C35" s="8"/>
+      <c r="D35" s="7">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>700</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>3750</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1200</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>220</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>175</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>50</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>700</v>
       </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8">
+      <c r="C52" s="8"/>
+      <c r="D52" s="7">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C816E9-AD61-4743-85B2-51931058F6B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB9A9C-9ED0-406C-8F16-CB87066F9E08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -115,9 +115,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -142,10 +141,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,9 +239,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,14 +251,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,16 +597,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -614,21 +614,21 @@
       <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>10000</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
         <v>10000</v>
       </c>
     </row>
@@ -636,21 +636,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7">
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
         <v>50</v>
       </c>
     </row>
@@ -658,21 +658,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>150</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
         <v>150</v>
       </c>
     </row>
@@ -680,21 +680,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
         <v>200</v>
       </c>
     </row>
@@ -702,21 +702,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>250</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
         <v>250</v>
       </c>
     </row>
@@ -724,21 +724,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>150</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
         <v>150</v>
       </c>
     </row>
@@ -746,21 +746,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>450</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6">
         <v>450</v>
       </c>
     </row>
@@ -768,21 +768,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6">
         <v>40</v>
       </c>
     </row>
@@ -790,21 +790,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>600</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="6">
         <v>600</v>
       </c>
     </row>
@@ -812,43 +812,43 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>500</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>42903</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>30</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="6">
         <v>30</v>
       </c>
     </row>
@@ -856,21 +856,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>250</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="6">
         <v>250</v>
       </c>
     </row>
@@ -878,21 +878,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>40</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="6">
         <v>40</v>
       </c>
     </row>
@@ -900,21 +900,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>750</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7">
+      <c r="C29" s="7"/>
+      <c r="D29" s="6">
         <v>750</v>
       </c>
     </row>
@@ -922,21 +922,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>175</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7">
+      <c r="C31" s="7"/>
+      <c r="D31" s="6">
         <v>175</v>
       </c>
     </row>
@@ -944,21 +944,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>600</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7">
+      <c r="C33" s="7"/>
+      <c r="D33" s="6">
         <v>600</v>
       </c>
     </row>
@@ -966,21 +966,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1600</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7">
+      <c r="C35" s="7"/>
+      <c r="D35" s="6">
         <v>1600</v>
       </c>
     </row>
@@ -988,51 +988,51 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>700</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7">
+      <c r="C37" s="7"/>
+      <c r="D37" s="6">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>3750</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8">
+      <c r="C40" s="6"/>
+      <c r="D40" s="7">
         <v>3750</v>
       </c>
     </row>
@@ -1040,23 +1040,23 @@
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>1200</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7">
         <v>1200</v>
       </c>
     </row>
@@ -1064,23 +1064,23 @@
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>220</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8">
+      <c r="C44" s="6"/>
+      <c r="D44" s="7">
         <v>220</v>
       </c>
     </row>
@@ -1088,23 +1088,23 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>175</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8">
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
         <v>175</v>
       </c>
     </row>
@@ -1112,59 +1112,53 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>50</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>700</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8">
+      <c r="C50" s="6"/>
+      <c r="D50" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7">
+      <c r="D51" s="6">
         <v>250</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB9A9C-9ED0-406C-8F16-CB87066F9E08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A5CEC0-EF4C-4B50-8285-AC1AD143AD4A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -168,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,49 +192,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE1A16C"/>
+        <color rgb="FFD9D9D9"/>
       </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -242,26 +231,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,6 +266,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
     </mruColors>
@@ -583,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,38 +593,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>42887</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>10000</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -636,21 +632,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
         <v>50</v>
       </c>
     </row>
@@ -658,21 +654,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
         <v>150</v>
       </c>
     </row>
@@ -680,21 +676,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
         <v>200</v>
       </c>
     </row>
@@ -702,21 +698,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
         <v>250</v>
       </c>
     </row>
@@ -724,21 +720,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>150</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
         <v>150</v>
       </c>
     </row>
@@ -746,21 +742,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>450</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
         <v>450</v>
       </c>
     </row>
@@ -768,21 +764,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>40</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4">
         <v>40</v>
       </c>
     </row>
@@ -790,21 +786,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>600</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
         <v>600</v>
       </c>
     </row>
@@ -812,21 +808,21 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>500</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
         <v>500</v>
       </c>
     </row>
@@ -834,21 +830,21 @@
       <c r="A22" s="2">
         <v>42903</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
         <v>30</v>
       </c>
     </row>
@@ -856,21 +852,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>250</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
         <v>250</v>
       </c>
     </row>
@@ -878,21 +874,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>40</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
         <v>40</v>
       </c>
     </row>
@@ -900,21 +896,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>750</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4">
         <v>750</v>
       </c>
     </row>
@@ -922,21 +918,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>175</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
         <v>175</v>
       </c>
     </row>
@@ -944,21 +940,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>600</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6">
+      <c r="C33" s="5"/>
+      <c r="D33" s="4">
         <v>600</v>
       </c>
     </row>
@@ -966,21 +962,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1600</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="4">
         <v>1600</v>
       </c>
     </row>
@@ -988,51 +984,51 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>700</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="4">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>3750</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7">
+      <c r="C40" s="4"/>
+      <c r="D40" s="5">
         <v>3750</v>
       </c>
     </row>
@@ -1040,23 +1036,23 @@
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>1200</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7">
+      <c r="C42" s="4"/>
+      <c r="D42" s="5">
         <v>1200</v>
       </c>
     </row>
@@ -1064,23 +1060,23 @@
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>220</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7">
+      <c r="C44" s="4"/>
+      <c r="D44" s="5">
         <v>220</v>
       </c>
     </row>
@@ -1088,23 +1084,23 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>175</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5">
         <v>175</v>
       </c>
     </row>
@@ -1112,54 +1108,44 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>50</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>700</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7">
+      <c r="C50" s="4"/>
+      <c r="D50" s="5">
         <v>700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A5CEC0-EF4C-4B50-8285-AC1AD143AD4A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11932B05-95C4-44F1-B6F1-C460013CF696}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,15 +109,63 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>6/16</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>6/21</t>
+  </si>
+  <si>
+    <t>6/24</t>
+  </si>
+  <si>
+    <t>6/25</t>
+  </si>
+  <si>
+    <t>6/27</t>
+  </si>
+  <si>
+    <t>6/29</t>
+  </si>
+  <si>
+    <t>6/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,14 +271,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -243,9 +285,6 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -257,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,558 +638,558 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>10000</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42888</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>200</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42892</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>250</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>450</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42896</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>40</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42899</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>600</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>500</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42903</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42906</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>250</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42907</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>40</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42910</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>750</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="2">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42911</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>175</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42913</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>600</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>1600</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4">
+      <c r="C35" s="3"/>
+      <c r="D35" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>700</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>3750</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>1200</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5">
+      <c r="C42" s="2"/>
+      <c r="D42" s="3">
         <v>1200</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>220</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5">
+      <c r="C44" s="2"/>
+      <c r="D44" s="3">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>175</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5">
+      <c r="C46" s="2"/>
+      <c r="D46" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>50</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5">
+      <c r="C48" s="2"/>
+      <c r="D48" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>700</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5">
+      <c r="C50" s="2"/>
+      <c r="D50" s="3">
         <v>700</v>
       </c>
     </row>
